--- a/氣象性能評估工具V2/data/obs/2016-06-16_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-16_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="226">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-16-00</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>27.0</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>29.2</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-16-01</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>26.7</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>30.0</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-16-02</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>27.9</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>30.5</t>
   </si>
   <si>
+    <t>22.6</t>
+  </si>
+  <si>
     <t>2016-06-16-03</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>27.8</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>28.7</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-16-04</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>24.1</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t>30.6</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-16-05</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>30.1</t>
   </si>
   <si>
@@ -622,24 +622,24 @@
     <t>5.0</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-16-19</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
     <t>5.2</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-16-20</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>24.9</t>
   </si>
   <si>
@@ -664,12 +664,12 @@
     <t>4.9</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-16-22</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -679,10 +679,10 @@
     <t>12.6</t>
   </si>
   <si>
+    <t>21.7</t>
+  </si>
+  <si>
     <t>2016-06-16-23</t>
-  </si>
-  <si>
-    <t>21.7</t>
   </si>
   <si>
     <t>24.2</t>
@@ -698,6 +698,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -727,8 +730,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,11 +1111,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1184,11 +1188,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1261,11 +1265,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1338,17 +1342,17 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -1415,11 +1419,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -1492,11 +1496,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -1569,7 +1573,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B8" t="s">
@@ -1612,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s">
         <v>112</v>
@@ -1646,7 +1650,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
@@ -1689,7 +1693,7 @@
         <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
         <v>120</v>
@@ -1723,7 +1727,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B10" t="s">
@@ -1800,7 +1804,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B11" t="s">
@@ -1877,7 +1881,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
@@ -1954,7 +1958,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B13" t="s">
@@ -1997,7 +2001,7 @@
         <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
         <v>162</v>
@@ -2031,7 +2035,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B14" t="s">
@@ -2108,7 +2112,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
@@ -2185,7 +2189,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B16" t="s">
@@ -2262,7 +2266,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B17" t="s">
@@ -2339,7 +2343,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B18" t="s">
@@ -2416,7 +2420,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B19" t="s">
@@ -2493,11 +2497,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -2570,11 +2574,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
         <v>202</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -2613,7 +2617,7 @@
         <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s">
         <v>204</v>
@@ -2647,11 +2651,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
         <v>206</v>
-      </c>
-      <c r="B22" t="s">
-        <v>207</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
@@ -2724,11 +2728,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -2801,11 +2805,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
         <v>216</v>
-      </c>
-      <c r="B24" t="s">
-        <v>217</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -2878,11 +2882,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
         <v>221</v>
-      </c>
-      <c r="B25" t="s">
-        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
